--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="А-block" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="В-block" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="А-block" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="В-block" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -587,7 +587,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>⚠️</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="А-block" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="В-block" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="А-block" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="В-block" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>❌</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="А-block" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="В-block" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="А-block" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Б-block" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="В-block" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Г-block" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -839,7 +839,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>❌</t>
         </is>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
@@ -4709,7 +4709,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>⚠️</t>
+          <t>✅</t>
         </is>
       </c>
     </row>
